--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>soluzione1</t>
   </si>
@@ -120,6 +120,90 @@
   </si>
   <si>
     <t>0.31977</t>
+  </si>
+  <si>
+    <t>589274</t>
+  </si>
+  <si>
+    <t>0.698516</t>
+  </si>
+  <si>
+    <t>1.52233</t>
+  </si>
+  <si>
+    <t>0.639541</t>
+  </si>
+  <si>
+    <t>1.56362</t>
+  </si>
+  <si>
+    <t>0.613915</t>
+  </si>
+  <si>
+    <t>589647</t>
+  </si>
+  <si>
+    <t>0.00809516</t>
+  </si>
+  <si>
+    <t>0.426361</t>
+  </si>
+  <si>
+    <t>884271</t>
+  </si>
+  <si>
+    <t>0.547004</t>
+  </si>
+  <si>
+    <t>1.8023</t>
+  </si>
+  <si>
+    <t>0.540626</t>
+  </si>
+  <si>
+    <t>1.84971</t>
+  </si>
+  <si>
+    <t>0.601658</t>
+  </si>
+  <si>
+    <t>0.270313</t>
+  </si>
+  <si>
+    <t>589275</t>
+  </si>
+  <si>
+    <t>0.5899</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.666667</t>
+  </si>
+  <si>
+    <t>586217</t>
+  </si>
+  <si>
+    <t>0.647806</t>
+  </si>
+  <si>
+    <t>1.54367</t>
+  </si>
+  <si>
+    <t>0.120846</t>
+  </si>
+  <si>
+    <t>0.43187</t>
+  </si>
+  <si>
+    <t>591548</t>
   </si>
 </sst>
 </file>
@@ -474,6 +558,24 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
@@ -482,35 +584,182 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
   <si>
     <t>soluzione1</t>
   </si>
@@ -558,208 +558,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>589274</v>
+      </c>
+      <c r="C2">
+        <v>0.6985164655765288</v>
+      </c>
+      <c r="D2">
+        <v>1.5223349316786787</v>
+      </c>
+      <c r="E2">
+        <v>0.63954081252851747</v>
+      </c>
+      <c r="F2">
+        <v>1.5636218680811858</v>
+      </c>
+      <c r="G2">
+        <v>0.61391525773506883</v>
+      </c>
+      <c r="H2">
+        <v>0.31977040626425873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>589646.78571428545</v>
+      </c>
+      <c r="C3">
+        <v>0.6985164655765288</v>
+      </c>
+      <c r="D3">
+        <v>1.5223349316786787</v>
+      </c>
+      <c r="E3">
+        <v>0.63954081252851747</v>
+      </c>
+      <c r="F3">
+        <v>1.5636218680811858</v>
+      </c>
+      <c r="G3">
+        <v>0.008095159075025898</v>
+      </c>
+      <c r="H3">
+        <v>0.42636054168567833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="B4">
+        <v>884270.92296311248</v>
+      </c>
+      <c r="C4">
+        <v>0.54700412448541036</v>
+      </c>
+      <c r="D4">
+        <v>1.8022999435654352</v>
+      </c>
+      <c r="E4">
+        <v>0.54062617867403273</v>
+      </c>
+      <c r="F4">
+        <v>1.8497069499162084</v>
+      </c>
+      <c r="G4">
+        <v>0.60165769860846774</v>
+      </c>
+      <c r="H4">
+        <v>0.27031308933701637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+      <c r="B5">
+        <v>589274.5685714283</v>
+      </c>
+      <c r="C5">
+        <v>0.6985164655765288</v>
+      </c>
+      <c r="D5">
+        <v>1.5223349316786789</v>
+      </c>
+      <c r="E5">
+        <v>0.63954081252851747</v>
+      </c>
+      <c r="F5">
+        <v>1.5636218680811858</v>
+      </c>
+      <c r="G5">
+        <v>0.58990005205257456</v>
+      </c>
+      <c r="H5">
+        <v>0.31977040626425873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="H7">
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
+      <c r="B8">
+        <v>586217.4430989906</v>
+      </c>
+      <c r="C8">
+        <v>0.6985164655765288</v>
+      </c>
+      <c r="D8">
+        <v>1.5223349316786787</v>
+      </c>
+      <c r="E8">
+        <v>0.64780564741084024</v>
+      </c>
+      <c r="F8">
+        <v>1.5436728654602125</v>
+      </c>
+      <c r="G8">
+        <v>0.12084570799750306</v>
+      </c>
+      <c r="H8">
+        <v>0.43187043160722693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
+      <c r="B9">
+        <v>591548.28571428545</v>
+      </c>
+      <c r="C9">
+        <v>0.6985164655765288</v>
+      </c>
+      <c r="D9">
+        <v>1.5223349316786787</v>
+      </c>
+      <c r="E9">
+        <v>0.63954081252851747</v>
+      </c>
+      <c r="F9">
+        <v>1.5636218680811858</v>
+      </c>
+      <c r="G9">
+        <v>0.61391525773506883</v>
+      </c>
+      <c r="H9">
+        <v>0.42636054168567833</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-2.xlsx
@@ -577,7 +577,7 @@
         <v>0.61391525773506883</v>
       </c>
       <c r="H2">
-        <v>0.31977040626425873</v>
+        <v>0.63954081252851747</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         <v>0.008095159075025898</v>
       </c>
       <c r="H3">
-        <v>0.42636054168567833</v>
+        <v>0.63954081252851747</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         <v>0.60165769860846774</v>
       </c>
       <c r="H4">
-        <v>0.27031308933701637</v>
+        <v>0.54062617867403273</v>
       </c>
     </row>
     <row r="5">
@@ -655,7 +655,7 @@
         <v>0.58990005205257456</v>
       </c>
       <c r="H5">
-        <v>0.31977040626425873</v>
+        <v>0.63954081252851747</v>
       </c>
     </row>
     <row r="6">
@@ -681,7 +681,7 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="H7">
-        <v>0.66666666666666696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.12084570799750306</v>
       </c>
       <c r="H8">
-        <v>0.43187043160722693</v>
+        <v>0.64780564741084024</v>
       </c>
     </row>
     <row r="9">
@@ -759,7 +759,7 @@
         <v>0.61391525773506883</v>
       </c>
       <c r="H9">
-        <v>0.42636054168567833</v>
+        <v>0.63954081252851747</v>
       </c>
     </row>
   </sheetData>
